--- a/your_excel_file.xlsx
+++ b/your_excel_file.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="3">
   <si>
     <t>A</t>
   </si>
@@ -666,10 +666,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -1023,13 +1023,13 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.4285714285714" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.4285714285714" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.28571428571429" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.8571428571429" style="1" customWidth="1"/>
@@ -1041,7 +1041,7 @@
     <col min="12" max="12" width="11.8571428571429" style="3" customWidth="1"/>
     <col min="13" max="13" width="7.28571428571429" style="3" customWidth="1"/>
     <col min="14" max="14" width="11.8571428571429" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.28571428571429" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.4285714285714" style="2" customWidth="1"/>
     <col min="16" max="16" width="11.8571428571429" style="3" customWidth="1"/>
     <col min="17" max="17" width="7.28571428571429" style="3" customWidth="1"/>
     <col min="18" max="18" width="11.8571428571429" style="3" customWidth="1"/>
@@ -1061,20 +1061,41 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
@@ -1085,24 +1106,49 @@
       <c r="W1" s="4"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:23">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
       <c r="C2" s="4">
-        <f>A2+B2</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4">
+        <f>A2+B2+C2+D2+E2+F2+G2+H2+I2+J2+K2+L2+M2</f>
+        <v>79</v>
+      </c>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
@@ -1115,22 +1161,18 @@
     <row r="3" ht="18.75" customHeight="1" spans="1:23">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <f>A3+B3</f>
-        <v>0</v>
-      </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
@@ -1143,15 +1185,11 @@
     <row r="4" ht="18.75" customHeight="1" spans="1:23">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <f>A4+B4</f>
-        <v>0</v>
-      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -1160,9 +1198,9 @@
       <c r="N4" s="7"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
